--- a/sict/day4/0410_실습1_엑셀_프로세스_Data_Result.xlsx
+++ b/sict/day4/0410_실습1_엑셀_프로세스_Data_Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jun\learning-uipath\sict\day4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C8EFD1-C2ED-4B38-B90B-1E0D2D28B9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A89AAA3-C142-4736-9BB4-DAD15C30B747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D5524604-C1F5-4EDA-9602-572D56A4BB20}"/>
+    <workbookView xWindow="6504" yWindow="1104" windowWidth="13512" windowHeight="9756" activeTab="2" xr2:uid="{D5524604-C1F5-4EDA-9602-572D56A4BB20}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="292">
   <si>
     <r>
       <rPr>
@@ -3600,7 +3600,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082EA5F7-538A-4DE0-8D47-0F113AC260D6}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
@@ -3641,728 +3641,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" t="s">
-        <v>229</v>
-      </c>
-      <c r="G4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0.85714285714285698</v>
-      </c>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" t="s">
-        <v>229</v>
-      </c>
-      <c r="G5" t="s">
-        <v>234</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0.27272727272727199</v>
-      </c>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>225</v>
-      </c>
-      <c r="D6" t="s">
-        <v>226</v>
-      </c>
-      <c r="G6" t="s">
-        <v>263</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>235</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>236</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>228</v>
-      </c>
-      <c r="D10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>237</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>238</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>225</v>
-      </c>
-      <c r="D12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>240</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>225</v>
-      </c>
-      <c r="D14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>241</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>228</v>
-      </c>
-      <c r="D15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>242</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>243</v>
-      </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>228</v>
-      </c>
-      <c r="D17" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>244</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" t="s">
-        <v>234</v>
-      </c>
-      <c r="D18" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>245</v>
-      </c>
-      <c r="B19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" t="s">
-        <v>228</v>
-      </c>
-      <c r="D19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>246</v>
-      </c>
-      <c r="B20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" t="s">
-        <v>225</v>
-      </c>
-      <c r="D20" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>247</v>
-      </c>
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" t="s">
-        <v>225</v>
-      </c>
-      <c r="D21" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>248</v>
-      </c>
-      <c r="B22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" t="s">
-        <v>228</v>
-      </c>
-      <c r="D22" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>249</v>
-      </c>
-      <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" t="s">
-        <v>225</v>
-      </c>
-      <c r="D23" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>250</v>
-      </c>
-      <c r="B24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" t="s">
-        <v>225</v>
-      </c>
-      <c r="D24" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>251</v>
-      </c>
-      <c r="B25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" t="s">
-        <v>228</v>
-      </c>
-      <c r="D25" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>252</v>
-      </c>
-      <c r="B26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" t="s">
-        <v>234</v>
-      </c>
-      <c r="D26" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>253</v>
-      </c>
-      <c r="B27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" t="s">
-        <v>225</v>
-      </c>
-      <c r="D27" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>254</v>
-      </c>
-      <c r="B28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D28" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>255</v>
-      </c>
-      <c r="B29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" t="s">
-        <v>225</v>
-      </c>
-      <c r="D29" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>256</v>
-      </c>
-      <c r="B30" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" t="s">
-        <v>225</v>
-      </c>
-      <c r="D30" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>257</v>
-      </c>
-      <c r="B31" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" t="s">
-        <v>228</v>
-      </c>
-      <c r="D31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>258</v>
-      </c>
-      <c r="B32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" t="s">
-        <v>228</v>
-      </c>
-      <c r="D32" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>259</v>
-      </c>
-      <c r="B33" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" t="s">
-        <v>225</v>
-      </c>
-      <c r="D33" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>260</v>
-      </c>
-      <c r="B34" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" t="s">
-        <v>225</v>
-      </c>
-      <c r="D34" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>261</v>
-      </c>
-      <c r="B35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" t="s">
-        <v>234</v>
-      </c>
-      <c r="D35" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>262</v>
-      </c>
-      <c r="B36" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" t="s">
-        <v>263</v>
-      </c>
-      <c r="D36" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>264</v>
-      </c>
-      <c r="B37" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" t="s">
-        <v>234</v>
-      </c>
-      <c r="D37" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>265</v>
-      </c>
-      <c r="B38" t="s">
-        <v>146</v>
-      </c>
-      <c r="C38" t="s">
-        <v>225</v>
-      </c>
-      <c r="D38" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>266</v>
-      </c>
-      <c r="B39" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39" t="s">
-        <v>225</v>
-      </c>
-      <c r="D39" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>267</v>
-      </c>
-      <c r="B40" t="s">
-        <v>154</v>
-      </c>
-      <c r="C40" t="s">
-        <v>228</v>
-      </c>
-      <c r="D40" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>268</v>
-      </c>
-      <c r="B41" t="s">
-        <v>158</v>
-      </c>
-      <c r="C41" t="s">
-        <v>234</v>
-      </c>
-      <c r="D41" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>269</v>
-      </c>
-      <c r="B42" t="s">
-        <v>162</v>
-      </c>
-      <c r="C42" t="s">
-        <v>234</v>
-      </c>
-      <c r="D42" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>270</v>
-      </c>
-      <c r="B43" t="s">
-        <v>166</v>
-      </c>
-      <c r="C43" t="s">
-        <v>228</v>
-      </c>
-      <c r="D43" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>271</v>
-      </c>
-      <c r="B44" t="s">
-        <v>170</v>
-      </c>
-      <c r="C44" t="s">
-        <v>225</v>
-      </c>
-      <c r="D44" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>272</v>
-      </c>
-      <c r="B45" t="s">
-        <v>174</v>
-      </c>
-      <c r="C45" t="s">
-        <v>234</v>
-      </c>
-      <c r="D45" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>273</v>
-      </c>
-      <c r="B46" t="s">
-        <v>178</v>
-      </c>
-      <c r="C46" t="s">
-        <v>234</v>
-      </c>
-      <c r="D46" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>274</v>
-      </c>
-      <c r="B47" t="s">
-        <v>182</v>
-      </c>
-      <c r="C47" t="s">
-        <v>234</v>
-      </c>
-      <c r="D47" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>275</v>
-      </c>
-      <c r="B48" t="s">
-        <v>186</v>
-      </c>
-      <c r="C48" t="s">
-        <v>225</v>
-      </c>
-      <c r="D48" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>276</v>
-      </c>
-      <c r="B49" t="s">
-        <v>190</v>
-      </c>
-      <c r="C49" t="s">
-        <v>228</v>
-      </c>
-      <c r="D49" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>277</v>
-      </c>
-      <c r="B50" t="s">
-        <v>194</v>
-      </c>
-      <c r="C50" t="s">
-        <v>225</v>
-      </c>
-      <c r="D50" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>278</v>
-      </c>
-      <c r="B51" t="s">
-        <v>198</v>
-      </c>
-      <c r="C51" t="s">
-        <v>225</v>
-      </c>
-      <c r="D51" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>279</v>
-      </c>
-      <c r="B52" t="s">
-        <v>202</v>
-      </c>
-      <c r="C52" t="s">
-        <v>225</v>
-      </c>
-      <c r="D52" t="s">
-        <v>229</v>
-      </c>
+      <c r="H6" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
